--- a/public/filling_standard_list.xlsx
+++ b/public/filling_standard_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B561EF53-7089-4A26-8034-976472C48EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C320F82-C6F6-4599-B16C-A47789EC5FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="446">
   <si>
     <t>Code</t>
   </si>
@@ -1341,13 +1341,43 @@
   </si>
   <si>
     <t>WW Caesar Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>Coles Crmy Basil Pasta 6x700g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	(28-05)Pack</t>
+  </si>
+  <si>
+    <t>LC Packing</t>
+  </si>
+  <si>
+    <t>599803T</t>
+  </si>
+  <si>
+    <t>Coles Tabouleh 6 x 250g (Tas)</t>
+  </si>
+  <si>
+    <t>Coles Tabouleh 6 x 250g</t>
+  </si>
+  <si>
+    <t>Coles Tabouleh 6 x 460g (Tas)</t>
+  </si>
+  <si>
+    <t>599801T</t>
+  </si>
+  <si>
+    <t>Coles Tabouleh 6 x 460g</t>
+  </si>
+  <si>
+    <t>Coles Pot,Egg &amp; Bacon 6 x 650g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1357,9 +1387,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1406,14 +1443,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1683,11 +1726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K292"/>
+  <dimension ref="A1:K317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11925,6 +11968,595 @@
         <v>20</v>
       </c>
     </row>
+    <row r="293" spans="1:11">
+      <c r="A293" s="2">
+        <v>599807</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E293" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F293" s="2">
+        <v>20</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H293" s="2">
+        <v>30</v>
+      </c>
+      <c r="I293" s="2">
+        <v>714</v>
+      </c>
+      <c r="J293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K293" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
+      <c r="A294" s="2">
+        <v>599807</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E294" s="2">
+        <v>3</v>
+      </c>
+      <c r="F294" s="2">
+        <v>20</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H294" s="2">
+        <v>30</v>
+      </c>
+      <c r="I294" s="2">
+        <v>714</v>
+      </c>
+      <c r="J294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K294" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
+      <c r="A295" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E295" s="2">
+        <v>7</v>
+      </c>
+      <c r="F295" s="2">
+        <v>1</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H295" s="2">
+        <v>16</v>
+      </c>
+      <c r="I295" s="2">
+        <v>280.5</v>
+      </c>
+      <c r="J295" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K295" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
+      <c r="A296" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E296" s="2">
+        <v>3</v>
+      </c>
+      <c r="F296" s="2">
+        <v>1</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H296" s="2">
+        <v>16</v>
+      </c>
+      <c r="I296" s="2">
+        <v>280.5</v>
+      </c>
+      <c r="J296" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K296" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
+      <c r="A297" s="2">
+        <v>599803</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E297" s="2">
+        <v>7</v>
+      </c>
+      <c r="F297" s="2">
+        <v>1</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H297" s="2">
+        <v>16</v>
+      </c>
+      <c r="I297" s="2">
+        <v>280.5</v>
+      </c>
+      <c r="J297" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K297" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
+      <c r="A298" s="2">
+        <v>599803</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E298" s="2">
+        <v>3</v>
+      </c>
+      <c r="F298" s="2">
+        <v>1</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H298" s="2">
+        <v>16</v>
+      </c>
+      <c r="I298" s="2">
+        <v>280.5</v>
+      </c>
+      <c r="J298" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K298" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
+      <c r="A299" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E299" s="2">
+        <v>7</v>
+      </c>
+      <c r="F299" s="2">
+        <v>5</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H299" s="2">
+        <v>16</v>
+      </c>
+      <c r="I299" s="2">
+        <v>511</v>
+      </c>
+      <c r="J299" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K299" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
+      <c r="A300" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E300" s="2">
+        <v>3</v>
+      </c>
+      <c r="F300" s="2">
+        <v>5</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H300" s="2">
+        <v>16</v>
+      </c>
+      <c r="I300" s="2">
+        <v>511</v>
+      </c>
+      <c r="J300" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K300" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
+      <c r="A301" s="3">
+        <v>599801</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E301" s="2">
+        <v>7</v>
+      </c>
+      <c r="F301" s="2">
+        <v>5</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H301" s="2">
+        <v>16</v>
+      </c>
+      <c r="I301" s="2">
+        <v>511</v>
+      </c>
+      <c r="J301" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K301" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
+      <c r="A302" s="3">
+        <v>599801</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E302" s="2">
+        <v>3</v>
+      </c>
+      <c r="F302" s="2">
+        <v>5</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H302" s="2">
+        <v>16</v>
+      </c>
+      <c r="I302" s="2">
+        <v>511</v>
+      </c>
+      <c r="J302" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K302" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
+      <c r="A303" s="3">
+        <v>599800</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E303" s="2">
+        <v>6</v>
+      </c>
+      <c r="F303" s="2">
+        <v>5</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H303" s="2">
+        <v>18</v>
+      </c>
+      <c r="I303" s="2">
+        <v>697.5</v>
+      </c>
+      <c r="J303" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K303" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
+      <c r="A304" s="3">
+        <v>599800</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E304" s="2">
+        <v>3</v>
+      </c>
+      <c r="F304" s="2">
+        <v>5</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H304" s="2">
+        <v>18</v>
+      </c>
+      <c r="I304" s="2">
+        <v>697.5</v>
+      </c>
+      <c r="J304" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K304" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
+      <c r="A305" s="3"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="4"/>
+      <c r="K305" s="4"/>
+    </row>
+    <row r="306" spans="1:11">
+      <c r="A306" s="3"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
+      <c r="J306" s="4"/>
+      <c r="K306" s="4"/>
+    </row>
+    <row r="307" spans="1:11">
+      <c r="A307" s="3"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
+      <c r="J307" s="4"/>
+      <c r="K307" s="4"/>
+    </row>
+    <row r="308" spans="1:11">
+      <c r="A308" s="3"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="4"/>
+      <c r="K308" s="4"/>
+    </row>
+    <row r="309" spans="1:11">
+      <c r="A309" s="3"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
+      <c r="J309" s="4"/>
+      <c r="K309" s="4"/>
+    </row>
+    <row r="310" spans="1:11">
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
+      <c r="J310" s="4"/>
+      <c r="K310" s="4"/>
+    </row>
+    <row r="311" spans="1:11">
+      <c r="A311" s="3"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+      <c r="J311" s="4"/>
+      <c r="K311" s="4"/>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+      <c r="I312" s="2"/>
+      <c r="J312" s="4"/>
+      <c r="K312" s="4"/>
+    </row>
+    <row r="313" spans="1:11">
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+      <c r="H313" s="2"/>
+      <c r="I313" s="2"/>
+      <c r="J313" s="4"/>
+      <c r="K313" s="4"/>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
+      <c r="J314" s="4"/>
+      <c r="K314" s="4"/>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+      <c r="H315" s="2"/>
+      <c r="I315" s="2"/>
+      <c r="J315" s="4"/>
+      <c r="K315" s="4"/>
+    </row>
+    <row r="316" spans="1:11">
+      <c r="A316" s="3"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="2"/>
+      <c r="J316" s="4"/>
+      <c r="K316" s="4"/>
+    </row>
+    <row r="317" spans="1:11">
+      <c r="A317" s="3"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="2"/>
+      <c r="I317" s="2"/>
+      <c r="J317" s="4"/>
+      <c r="K317" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
